--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgajdosz\Documents\bench learning\Selenium - training\GIT\v6 - reports\PHP-TRAVEL-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA3C6C5B-822C-4BCB-99C8-6CABC4DCE31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5518677E-FCC7-48BD-AC36-03A3122FFB69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="3585" windowWidth="17445" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34500" yWindow="3585" windowWidth="17445" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="reg" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>test data id</t>
   </si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>00000</t>
-  </si>
-  <si>
-    <t>LogA</t>
-  </si>
-  <si>
-    <t>LogB</t>
   </si>
   <si>
     <t>Lo1@test1.t23e1</t>
@@ -501,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -552,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -587,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -630,11 +624,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A82B51B-D360-4FDA-93DC-462F93EF514F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -644,102 +643,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2">
+      <c r="C2">
         <v>345345</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3">
+      <c r="C3">
         <v>345345</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
